--- a/angular/src/assets/sampleFiles/SalesTargetPlan/ImportCwdPlanTargetTmvByDay.xlsx
+++ b/angular/src/assets/sampleFiles/SalesTargetPlan/ImportCwdPlanTargetTmvByDay.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Đại lý</t>
   </si>
@@ -40,16 +40,25 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>09/09/2022</t>
-  </si>
-  <si>
     <t>IV</t>
+  </si>
+  <si>
+    <t>22/09/2022</t>
+  </si>
+  <si>
+    <t>Số lượng format là: text</t>
+  </si>
+  <si>
+    <t>Ngày có format là: text với định dạng dd/mm/yyyy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000000000000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +98,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -128,9 +143,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -141,6 +153,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,25 +451,25 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="15.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -456,7 +481,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -470,30 +495,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="18.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,23 +528,37 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
